--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/集体资本金.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/集体资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,379 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>44.1087</v>
-      </c>
-      <c r="C2" t="n">
-        <v>51.71092</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.42042</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>13.2701</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50.12727</v>
-      </c>
-      <c r="H2" t="n">
-        <v>24.2471</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18.49383</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12.85849</v>
-      </c>
-      <c r="K2" t="n">
-        <v>36.38301</v>
-      </c>
-      <c r="L2" t="n">
-        <v>907.50093</v>
-      </c>
-      <c r="M2" t="n">
-        <v>7.20584</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.42013</v>
-      </c>
-      <c r="O2" t="n">
-        <v>40.31315</v>
-      </c>
-      <c r="P2" t="n">
-        <v>27.28193</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.92376</v>
-      </c>
-      <c r="R2" t="n">
-        <v>31.4016</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.74668</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.03835</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9.62801</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.19681</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.46766</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>27.38033</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>27.57822</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>101.11943</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>11.83375</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5.65673</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.01582</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>109.76991</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4.45583</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>20.2187</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>35.96571</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>61.25462</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>5.78778</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>16.06153</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>33.51801</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>11.63676</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>41.93913</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.88961</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>30.95739</v>
-      </c>
-      <c r="C3" t="n">
-        <v>42.77611</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.37905</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>10.37918</v>
-      </c>
-      <c r="G3" t="n">
-        <v>60.84866</v>
-      </c>
-      <c r="H3" t="n">
-        <v>26.28422</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22.54816</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.67483</v>
-      </c>
-      <c r="K3" t="n">
-        <v>30.56974</v>
-      </c>
-      <c r="L3" t="n">
-        <v>836.26238</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.51037</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.19877</v>
-      </c>
-      <c r="O3" t="n">
-        <v>32.46017</v>
-      </c>
-      <c r="P3" t="n">
-        <v>15.26136</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4.8835</v>
-      </c>
-      <c r="R3" t="n">
-        <v>30.97473</v>
-      </c>
-      <c r="S3" t="n">
-        <v>6.27178</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.0392</v>
-      </c>
-      <c r="U3" t="n">
-        <v>8.98217</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.27229</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.54533</v>
-      </c>
-      <c r="X3" t="n">
-        <v>5.85095</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>33.70557</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>32.64707</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>79.58895</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.42539</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5.46791</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.52271</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>93.62737</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.25018</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>18.15939</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>35.13998</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>57.11268</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>4.1698</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>22.13545</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>32.7722</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>10.06006</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>46.46357</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.21984</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>27.74971</v>
-      </c>
-      <c r="C4" t="n">
-        <v>77.52957000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.962</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>10.41224</v>
-      </c>
-      <c r="G4" t="n">
-        <v>65.28610999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13.2027</v>
-      </c>
-      <c r="I4" t="n">
-        <v>24.4695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.422040000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27.90784</v>
-      </c>
-      <c r="L4" t="n">
-        <v>822.20018</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.23961</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.88105</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29.78029</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16.05957</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.6269</v>
-      </c>
-      <c r="R4" t="n">
-        <v>31.70845</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.1139</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="U4" t="n">
-        <v>8.224349999999999</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.29613</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.81897</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.8239</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>30.0683</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>26.60786</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>67.42549</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.3469</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.27209</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>87.21789</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.66443</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>18.26769</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>30.96402</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>53.89182</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.99993</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>20.69669</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>37.4687</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>10.3376</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>47.83975</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.58019</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
